--- a/output/bfm_summary/bfm_norep_pre/merging_points.xlsx
+++ b/output/bfm_summary/bfm_norep_pre/merging_points.xlsx
@@ -57,7 +57,1159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="768">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>country_year</t>
+  </si>
+  <si>
+    <t>BRA_2002</t>
+  </si>
+  <si>
+    <t>BRA_2006</t>
+  </si>
+  <si>
+    <t>BRA_2007</t>
+  </si>
+  <si>
+    <t>BRA_2008</t>
+  </si>
+  <si>
+    <t>BRA_2009</t>
+  </si>
+  <si>
+    <t>BRA_2011</t>
+  </si>
+  <si>
+    <t>BRA_2012</t>
+  </si>
+  <si>
+    <t>BRA_2013</t>
+  </si>
+  <si>
+    <t>BRA_2014</t>
+  </si>
+  <si>
+    <t>BRA_2015</t>
+  </si>
+  <si>
+    <t>BRA_2016</t>
+  </si>
+  <si>
+    <t>BRA_2017</t>
+  </si>
+  <si>
+    <t>BRA_2018</t>
+  </si>
+  <si>
+    <t>BRA_2019</t>
+  </si>
+  <si>
+    <t>BRA_2020</t>
+  </si>
+  <si>
+    <t>BRA_2021</t>
+  </si>
+  <si>
+    <t>BRA_2022</t>
+  </si>
+  <si>
+    <t>BRA_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>unobs</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
   <si>
     <t>p</t>
   </si>
@@ -1259,25 +2411,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>607</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>608</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>609</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>610</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>611</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>612</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2">
@@ -1353,10 +2505,10 @@
         <v>1.0052776336669922</v>
       </c>
       <c r="C5" s="1">
-        <v>0.64953702688217163</v>
+        <v>0.60918939113616943</v>
       </c>
       <c r="D5" s="1">
-        <v>0.716011643409729</v>
+        <v>0.69925969839096069</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1371,19 +2523,19 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0049190521240234</v>
+        <v>1.0048784017562866</v>
       </c>
       <c r="C6" s="1">
-        <v>0.27342888712882996</v>
+        <v>0.31377652287483215</v>
       </c>
       <c r="D6" s="1">
-        <v>0.716011643409729</v>
+        <v>0.69925969839096069</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68580</v>
+        <v>68400</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1398,7 +2550,7 @@
         <v>0.89605492353439331</v>
       </c>
       <c r="D7" s="1">
-        <v>0.716011643409729</v>
+        <v>0.69925969839096069</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1419,7 +2571,7 @@
         <v>0.49942862987518311</v>
       </c>
       <c r="D8" s="1">
-        <v>0.56752413511276245</v>
+        <v>0.56466865539550781</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1437,10 +2589,10 @@
         <v>1.0035665035247803</v>
       </c>
       <c r="C9" s="1">
-        <v>0.61927676200866699</v>
+        <v>0.61445021629333496</v>
       </c>
       <c r="D9" s="1">
-        <v>0.56752413511276245</v>
+        <v>0.56466865539550781</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1455,19 +2607,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0031806230545044</v>
+        <v>1.0031757354736328</v>
       </c>
       <c r="C10" s="1">
-        <v>0.44276970624923706</v>
+        <v>0.4475962221622467</v>
       </c>
       <c r="D10" s="1">
-        <v>0.44276970624923706</v>
+        <v>0.4475962221622467</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>106680</v>
+        <v>106200</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1923,25 +3075,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
@@ -2797,25 +3949,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>455</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2">
@@ -3671,25 +4823,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
@@ -4566,25 +5718,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>470</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>472</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>473</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
@@ -5461,25 +6613,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>475</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>479</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2">
@@ -6356,25 +7508,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>483</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>486</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>487</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2">
@@ -7251,25 +8403,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>491</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>493</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>494</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
@@ -8167,25 +9319,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>497</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>498</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>499</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>500</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>501</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2">
@@ -9083,25 +10235,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>505</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>506</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
@@ -9999,97 +11151,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -10103,25 +11255,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>395</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
@@ -10977,21 +12129,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>532</v>
       </c>
       <c r="C2">
         <v>1.9999999494757503e-05</v>
@@ -10999,10 +12151,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>533</v>
       </c>
       <c r="C3">
         <v>9.9999997473787516e-05</v>
@@ -11010,10 +12162,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
       <c r="C4">
         <v>9.9999997473787516e-05</v>
@@ -11021,10 +12173,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
       <c r="C5">
         <v>9.9999997473787516e-05</v>
@@ -11032,10 +12184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>536</v>
       </c>
       <c r="C6">
         <v>2.9999999242136255e-05</v>
@@ -11043,10 +12195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>537</v>
       </c>
       <c r="C7">
         <v>0.00019999999494757503</v>
@@ -11054,10 +12206,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>538</v>
       </c>
       <c r="C8">
         <v>9.9999997473787516e-05</v>
@@ -11065,10 +12217,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>539</v>
       </c>
       <c r="C9">
         <v>9.9999997473787516e-05</v>
@@ -11076,10 +12228,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>540</v>
       </c>
       <c r="C10">
         <v>7.9999997979030013e-05</v>
@@ -11087,10 +12239,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>541</v>
       </c>
       <c r="C11">
         <v>0.00019999999494757503</v>
@@ -11098,10 +12250,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>542</v>
       </c>
       <c r="C12">
         <v>0.00030000001424923539</v>
@@ -11109,10 +12261,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
       <c r="C13">
         <v>0.00030000001424923539</v>
@@ -11120,10 +12272,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>544</v>
       </c>
       <c r="C14">
         <v>0.00019999999494757503</v>
@@ -11131,10 +12283,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>545</v>
       </c>
       <c r="C15">
         <v>0.00019999999494757503</v>
@@ -11142,10 +12294,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>546</v>
       </c>
       <c r="C16">
         <v>0.00019999999494757503</v>
@@ -11153,10 +12305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="C17">
         <v>0.00019999999494757503</v>
@@ -11164,10 +12316,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>548</v>
       </c>
       <c r="C18">
         <v>9.9999997473787516e-05</v>
@@ -11175,10 +12327,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>549</v>
       </c>
       <c r="C19">
         <v>0.00019999999494757503</v>
@@ -11195,25 +12347,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>552</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>553</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>554</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>556</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -11859,25 +13011,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>685</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>686</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>687</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>688</v>
       </c>
       <c r="F1" t="s">
-        <v>305</v>
+        <v>689</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2">
@@ -12376,25 +13528,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>691</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>692</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>693</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>694</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>695</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>696</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2">
@@ -12914,25 +14066,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>572</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>573</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>574</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>575</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>577</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2">
@@ -13578,25 +14730,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>698</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>699</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>700</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>701</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>702</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>703</v>
       </c>
       <c r="G1" t="s">
-        <v>320</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2">
@@ -14116,25 +15268,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>705</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>706</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>707</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>708</v>
       </c>
       <c r="E1" t="s">
-        <v>325</v>
+        <v>709</v>
       </c>
       <c r="F1" t="s">
-        <v>326</v>
+        <v>710</v>
       </c>
       <c r="G1" t="s">
-        <v>327</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2">
@@ -14654,25 +15806,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>713</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>714</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>715</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>716</v>
       </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>717</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2">
@@ -15192,25 +16344,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>601</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>602</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>603</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>604</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2">
@@ -15218,19 +16370,19 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0098811388015747</v>
+        <v>1.009605884552002</v>
       </c>
       <c r="C2" s="1">
-        <v>0.84505671262741089</v>
+        <v>0.8717535138130188</v>
       </c>
       <c r="D2" s="1">
-        <v>0.84505671262741089</v>
+        <v>0.8717535138130188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>25812</v>
+        <v>25800</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -15856,25 +17008,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>614</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>615</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>616</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>617</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>618</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>619</v>
       </c>
       <c r="G1" t="s">
-        <v>236</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2">
@@ -15885,10 +17037,10 @@
         <v>1.0078837871551514</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0520972013473511</v>
+        <v>1.0504921674728394</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0520972013473511</v>
+        <v>1.0504921674728394</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -15905,19 +17057,19 @@
         <v>0.98000001907348633</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0083348751068115</v>
+        <v>1.0083185434341431</v>
       </c>
       <c r="C3" s="1">
-        <v>0.74195200204849243</v>
+        <v>0.74355709552764893</v>
       </c>
       <c r="D3" s="1">
-        <v>0.74195200204849243</v>
+        <v>0.74355709552764893</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41880</v>
+        <v>41760</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -15929,10 +17081,10 @@
         <v>1.0056440830230713</v>
       </c>
       <c r="C4" s="1">
-        <v>0.6644243597984314</v>
+        <v>0.62890863418579102</v>
       </c>
       <c r="D4" s="1">
-        <v>0.6644243597984314</v>
+        <v>0.6328732967376709</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -15947,19 +17099,19 @@
         <v>0.99099999666213989</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0052998065948486</v>
+        <v>1.0052639245986938</v>
       </c>
       <c r="C5" s="1">
-        <v>0.43875017762184143</v>
+        <v>0.47426590323448181</v>
       </c>
       <c r="D5" s="1">
-        <v>0.62854206562042236</v>
+        <v>0.6328732967376709</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66924</v>
+        <v>66600</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -15974,7 +17126,7 @@
         <v>0.74246370792388916</v>
       </c>
       <c r="D6" s="1">
-        <v>0.62854206562042236</v>
+        <v>0.6328732967376709</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -15995,7 +17147,7 @@
         <v>0.63813239336013794</v>
       </c>
       <c r="D7" s="1">
-        <v>0.62854206562042236</v>
+        <v>0.6328732967376709</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -16520,25 +17672,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -17394,25 +18546,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>621</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>622</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>623</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>625</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>626</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2">
@@ -17420,19 +18572,19 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0098934173583984</v>
+        <v>1.0098371505737305</v>
       </c>
       <c r="C2" s="1">
-        <v>0.75831818580627441</v>
+        <v>0.76377600431442261</v>
       </c>
       <c r="D2" s="1">
-        <v>0.80164927244186401</v>
+        <v>0.80406337976455688</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>32168.400390625</v>
+        <v>32160</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -17449,7 +18601,7 @@
         <v>0.83990204334259033</v>
       </c>
       <c r="D3" s="1">
-        <v>0.80164927244186401</v>
+        <v>0.80406337976455688</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -17467,10 +18619,10 @@
         <v>1.005635142326355</v>
       </c>
       <c r="C4" s="1">
-        <v>0.66686517000198364</v>
+        <v>0.65758132934570313</v>
       </c>
       <c r="D4" s="1">
-        <v>0.66686517000198364</v>
+        <v>0.65758132934570313</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -17485,19 +18637,19 @@
         <v>0.99099999666213989</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0052933692932129</v>
+        <v>1.0052839517593384</v>
       </c>
       <c r="C5" s="1">
-        <v>0.63325268030166626</v>
+        <v>0.59594923257827759</v>
       </c>
       <c r="D5" s="1">
-        <v>0.63325268030166626</v>
+        <v>0.62064355611801147</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70722</v>
+        <v>70440</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -17506,19 +18658,19 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0049183368682861</v>
+        <v>1.0048713684082031</v>
       </c>
       <c r="C6" s="1">
-        <v>0.60289907455444336</v>
+        <v>0.6425439715385437</v>
       </c>
       <c r="D6" s="1">
-        <v>0.60289907455444336</v>
+        <v>0.62064355611801147</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73560</v>
+        <v>73200</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -17527,19 +18679,19 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0045135021209717</v>
+        <v>1.0045064687728882</v>
       </c>
       <c r="C7" s="1">
-        <v>0.59562015533447266</v>
+        <v>0.60046893358230591</v>
       </c>
       <c r="D7" s="1">
-        <v>0.59562015533447266</v>
+        <v>0.60046893358230591</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>82080</v>
+        <v>81600</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -17548,19 +18700,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0041021108627319</v>
+        <v>1.00409996509552</v>
       </c>
       <c r="C8" s="1">
-        <v>0.54693984985351563</v>
+        <v>0.54903322458267212</v>
       </c>
       <c r="D8" s="1">
-        <v>0.54693984985351563</v>
+        <v>0.54903322458267212</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>91200</v>
+        <v>90528</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -17572,10 +18724,10 @@
         <v>1.0036426782608032</v>
       </c>
       <c r="C9" s="1">
-        <v>0.54170441627502441</v>
+        <v>0.53827363252639771</v>
       </c>
       <c r="D9" s="1">
-        <v>0.54170441627502441</v>
+        <v>0.53827363252639771</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -17590,19 +18742,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0031788349151611</v>
+        <v>1.0031753778457642</v>
       </c>
       <c r="C10" s="1">
-        <v>0.43384480476379395</v>
+        <v>0.43727558851242065</v>
       </c>
       <c r="D10" s="1">
-        <v>0.43384480476379395</v>
+        <v>0.43727558851242065</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>122400</v>
+        <v>121200</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -18058,25 +19210,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>628</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>629</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>630</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>631</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>632</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>633</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2">
@@ -18084,19 +19236,19 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="B2" s="1">
-        <v>1.015134334564209</v>
+        <v>1.0151407718658447</v>
       </c>
       <c r="C2" s="1">
-        <v>0.68008995056152344</v>
+        <v>0.67945647239685059</v>
       </c>
       <c r="D2" s="1">
-        <v>0.68008995056152344</v>
+        <v>0.67945647239685059</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>41880</v>
+        <v>42000</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -18134,7 +19286,7 @@
         <v>0.45589834451675415</v>
       </c>
       <c r="D4" s="1">
-        <v>0.467866450548172</v>
+        <v>0.45589834451675415</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -18152,10 +19304,10 @@
         <v>1.0064321756362915</v>
       </c>
       <c r="C5" s="1">
-        <v>0.47831574082374573</v>
+        <v>0.41052815318107605</v>
       </c>
       <c r="D5" s="1">
-        <v>0.467866450548172</v>
+        <v>0.43168392777442932</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -18170,19 +19322,19 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0058997869491577</v>
+        <v>1.0058314800262451</v>
       </c>
       <c r="C6" s="1">
-        <v>0.3499472439289093</v>
+        <v>0.41773483157157898</v>
       </c>
       <c r="D6" s="1">
-        <v>0.42195054888725281</v>
+        <v>0.43168392777442932</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>99126</v>
+        <v>99000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -18197,7 +19349,7 @@
         <v>0.38024398684501648</v>
       </c>
       <c r="D7" s="1">
-        <v>0.42195054888725281</v>
+        <v>0.43168392777442932</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18218,7 +19370,7 @@
         <v>0.49955227971076965</v>
       </c>
       <c r="D8" s="1">
-        <v>0.42195054888725281</v>
+        <v>0.43168392777442932</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -18722,25 +19874,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>635</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>637</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>638</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>639</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>640</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2">
@@ -19197,25 +20349,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>642</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>643</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>644</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>645</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>646</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>647</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
@@ -19672,25 +20824,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>649</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>650</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>651</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>652</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>653</v>
       </c>
       <c r="F1" t="s">
-        <v>270</v>
+        <v>654</v>
       </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2">
@@ -20147,25 +21299,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>657</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>658</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>659</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>660</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>661</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2">
@@ -20622,25 +21774,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>663</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>664</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>665</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>666</v>
       </c>
       <c r="E1" t="s">
-        <v>283</v>
+        <v>667</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>668</v>
       </c>
       <c r="G1" t="s">
-        <v>285</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2">
@@ -21097,25 +22249,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>670</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>671</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>672</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>673</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>674</v>
       </c>
       <c r="F1" t="s">
-        <v>291</v>
+        <v>675</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2">
@@ -21572,25 +22724,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>677</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>678</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>679</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>680</v>
       </c>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>681</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>682</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2">
@@ -22047,25 +23199,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>719</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>721</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>722</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>723</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>724</v>
       </c>
       <c r="G1" t="s">
-        <v>341</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2">
@@ -22585,25 +23737,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>408</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>410</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
@@ -23459,25 +24611,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>726</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>727</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>728</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>729</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>730</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>731</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2">
@@ -23491,7 +24643,7 @@
         <v>0.37612855434417725</v>
       </c>
       <c r="D2" s="1">
-        <v>0.40787705779075623</v>
+        <v>0.38712063431739807</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -23511,10 +24663,10 @@
         <v>1.0038180351257324</v>
       </c>
       <c r="C3" s="1">
-        <v>0.43168845772743225</v>
+        <v>0.39591428637504578</v>
       </c>
       <c r="D3" s="1">
-        <v>0.40787705779075623</v>
+        <v>0.38712063431739807</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -23529,19 +24681,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032435655593872</v>
+        <v>1.0032076835632324</v>
       </c>
       <c r="C4" s="1">
-        <v>0.28799214959144592</v>
+        <v>0.32376635074615479</v>
       </c>
       <c r="D4" s="1">
-        <v>0.28799214959144592</v>
+        <v>0.32376635074615479</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60000000</v>
+        <v>57222808</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -23997,25 +25149,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>733</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>734</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>735</v>
       </c>
       <c r="D1" t="s">
-        <v>352</v>
+        <v>736</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>737</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>738</v>
       </c>
       <c r="G1" t="s">
-        <v>355</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2">
@@ -24535,25 +25687,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>740</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>741</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>742</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>743</v>
       </c>
       <c r="E1" t="s">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>745</v>
       </c>
       <c r="G1" t="s">
-        <v>362</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2">
@@ -24561,19 +25713,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0045040845870972</v>
+        <v>1.0044620037078857</v>
       </c>
       <c r="C2" s="1">
-        <v>0.33983266353607178</v>
+        <v>0.36800530552864075</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3902353048324585</v>
+        <v>0.41219770908355713</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42405600</v>
+        <v>42338560</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -24584,19 +25736,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038361549377441</v>
+        <v>1.0038223266601563</v>
       </c>
       <c r="C3" s="1">
-        <v>0.42943733930587769</v>
+        <v>0.44313237071037292</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3902353048324585</v>
+        <v>0.41219770908355713</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46971280</v>
+        <v>46900000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -24608,10 +25760,10 @@
         <v>1.0032594203948975</v>
       </c>
       <c r="C4" s="1">
-        <v>0.31870314478874207</v>
+        <v>0.28876972198486328</v>
       </c>
       <c r="D4" s="1">
-        <v>0.31870314478874207</v>
+        <v>0.28876972198486328</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -24626,19 +25778,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.002572774887085</v>
+        <v>1.0025427341461182</v>
       </c>
       <c r="C5" s="1">
-        <v>0.1936754584312439</v>
+        <v>0.22360712289810181</v>
       </c>
       <c r="D5" s="1">
-        <v>0.21961340308189392</v>
+        <v>0.23241773247718811</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>61800000</v>
+        <v>61200000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -24653,7 +25805,7 @@
         <v>0.24122835695743561</v>
       </c>
       <c r="D6" s="1">
-        <v>0.21961340308189392</v>
+        <v>0.23241773247718811</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -25073,25 +26225,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>747</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>748</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>749</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>750</v>
       </c>
       <c r="E1" t="s">
-        <v>367</v>
+        <v>751</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>752</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2">
@@ -25102,10 +26254,10 @@
         <v>1.0045175552368164</v>
       </c>
       <c r="C2" s="1">
-        <v>0.38308486342430115</v>
+        <v>0.35965046286582947</v>
       </c>
       <c r="D2" s="1">
-        <v>0.38308486342430115</v>
+        <v>0.37468820810317993</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -25122,19 +26274,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038930177688599</v>
+        <v>1.0038695335388184</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2424783855676651</v>
+        <v>0.26591280102729797</v>
       </c>
       <c r="D3" s="1">
-        <v>0.37944382429122925</v>
+        <v>0.37468820810317993</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55949220</v>
+        <v>55410240</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -25149,7 +26301,7 @@
         <v>0.45319443941116333</v>
       </c>
       <c r="D4" s="1">
-        <v>0.37944382429122925</v>
+        <v>0.37468820810317993</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -25611,25 +26763,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>754</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>755</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>756</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>757</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>758</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>759</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2">
@@ -26149,25 +27301,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>761</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>762</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>763</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>764</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>765</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
+        <v>766</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2">
@@ -26687,25 +27839,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>416</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
@@ -27540,25 +28692,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>423</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
@@ -28393,25 +29545,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>431</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
@@ -29246,25 +30398,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>435</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>436</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>437</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>438</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
@@ -30120,25 +31272,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>443</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>444</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2">

--- a/output/bfm_summary/bfm_norep_pre/merging_points.xlsx
+++ b/output/bfm_summary/bfm_norep_pre/merging_points.xlsx
@@ -37,27 +37,1849 @@
     <sheet name="BRA2003" sheetId="29" r:id="rId31"/>
     <sheet name="BRA2004" sheetId="30" r:id="rId32"/>
     <sheet name="BRA2005" sheetId="31" r:id="rId33"/>
-    <sheet name="CRI2001" sheetId="32" r:id="rId34"/>
-    <sheet name="CRI2003" sheetId="33" r:id="rId35"/>
-    <sheet name="CRI2005" sheetId="34" r:id="rId36"/>
-    <sheet name="CRI2006" sheetId="35" r:id="rId37"/>
-    <sheet name="CRI2007" sheetId="36" r:id="rId38"/>
-    <sheet name="CRI2008" sheetId="37" r:id="rId39"/>
-    <sheet name="CRI2009" sheetId="38" r:id="rId40"/>
-    <sheet name="CRI2017" sheetId="39" r:id="rId41"/>
-    <sheet name="CRI2018" sheetId="40" r:id="rId42"/>
-    <sheet name="CRI2019" sheetId="41" r:id="rId43"/>
-    <sheet name="CRI2020" sheetId="42" r:id="rId44"/>
-    <sheet name="CRI2021" sheetId="43" r:id="rId45"/>
-    <sheet name="CRI2022" sheetId="44" r:id="rId46"/>
-    <sheet name="CRI2023" sheetId="45" r:id="rId47"/>
+    <sheet name="CRI2000" sheetId="32" r:id="rId34"/>
+    <sheet name="CRI2001" sheetId="33" r:id="rId35"/>
+    <sheet name="CRI2003" sheetId="34" r:id="rId36"/>
+    <sheet name="CRI2005" sheetId="35" r:id="rId37"/>
+    <sheet name="CRI2006" sheetId="36" r:id="rId38"/>
+    <sheet name="CRI2007" sheetId="37" r:id="rId39"/>
+    <sheet name="CRI2008" sheetId="38" r:id="rId40"/>
+    <sheet name="CRI2009" sheetId="39" r:id="rId41"/>
+    <sheet name="CRI2017" sheetId="40" r:id="rId42"/>
+    <sheet name="CRI2018" sheetId="41" r:id="rId43"/>
+    <sheet name="CRI2019" sheetId="42" r:id="rId44"/>
+    <sheet name="CRI2020" sheetId="43" r:id="rId45"/>
+    <sheet name="CRI2021" sheetId="44" r:id="rId46"/>
+    <sheet name="CRI2022" sheetId="45" r:id="rId47"/>
+    <sheet name="CRI2023" sheetId="46" r:id="rId48"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1375">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>country_year</t>
+  </si>
+  <si>
+    <t>BRA_2002</t>
+  </si>
+  <si>
+    <t>BRA_2006</t>
+  </si>
+  <si>
+    <t>BRA_2007</t>
+  </si>
+  <si>
+    <t>BRA_2008</t>
+  </si>
+  <si>
+    <t>BRA_2009</t>
+  </si>
+  <si>
+    <t>BRA_2011</t>
+  </si>
+  <si>
+    <t>BRA_2012</t>
+  </si>
+  <si>
+    <t>BRA_2013</t>
+  </si>
+  <si>
+    <t>BRA_2014</t>
+  </si>
+  <si>
+    <t>BRA_2015</t>
+  </si>
+  <si>
+    <t>BRA_2016</t>
+  </si>
+  <si>
+    <t>BRA_2017</t>
+  </si>
+  <si>
+    <t>BRA_2018</t>
+  </si>
+  <si>
+    <t>BRA_2019</t>
+  </si>
+  <si>
+    <t>BRA_2020</t>
+  </si>
+  <si>
+    <t>BRA_2021</t>
+  </si>
+  <si>
+    <t>BRA_2022</t>
+  </si>
+  <si>
+    <t>BRA_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>unobs</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>country_year</t>
+  </si>
+  <si>
+    <t>BRA_2002</t>
+  </si>
+  <si>
+    <t>BRA_2006</t>
+  </si>
+  <si>
+    <t>BRA_2007</t>
+  </si>
+  <si>
+    <t>BRA_2008</t>
+  </si>
+  <si>
+    <t>BRA_2009</t>
+  </si>
+  <si>
+    <t>BRA_2011</t>
+  </si>
+  <si>
+    <t>BRA_2012</t>
+  </si>
+  <si>
+    <t>BRA_2013</t>
+  </si>
+  <si>
+    <t>BRA_2014</t>
+  </si>
+  <si>
+    <t>BRA_2015</t>
+  </si>
+  <si>
+    <t>BRA_2016</t>
+  </si>
+  <si>
+    <t>BRA_2017</t>
+  </si>
+  <si>
+    <t>BRA_2018</t>
+  </si>
+  <si>
+    <t>BRA_2019</t>
+  </si>
+  <si>
+    <t>BRA_2020</t>
+  </si>
+  <si>
+    <t>BRA_2021</t>
+  </si>
+  <si>
+    <t>BRA_2022</t>
+  </si>
+  <si>
+    <t>BRA_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>unobs</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>big_t</t>
+  </si>
+  <si>
+    <t>small_t</t>
+  </si>
+  <si>
+    <t>antitonic</t>
+  </si>
+  <si>
+    <t>extrap</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>mpoint</t>
+  </si>
   <si>
     <t>p</t>
   </si>
@@ -2411,25 +4233,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>1214</v>
       </c>
       <c r="B1" t="s">
-        <v>608</v>
+        <v>1215</v>
       </c>
       <c r="C1" t="s">
-        <v>609</v>
+        <v>1216</v>
       </c>
       <c r="D1" t="s">
-        <v>610</v>
+        <v>1217</v>
       </c>
       <c r="E1" t="s">
-        <v>611</v>
+        <v>1218</v>
       </c>
       <c r="F1" t="s">
-        <v>612</v>
+        <v>1219</v>
       </c>
       <c r="G1" t="s">
-        <v>613</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="2">
@@ -3075,25 +4897,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>1054</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>1055</v>
       </c>
       <c r="C1" t="s">
-        <v>449</v>
+        <v>1056</v>
       </c>
       <c r="D1" t="s">
-        <v>450</v>
+        <v>1057</v>
       </c>
       <c r="E1" t="s">
-        <v>451</v>
+        <v>1058</v>
       </c>
       <c r="F1" t="s">
-        <v>452</v>
+        <v>1059</v>
       </c>
       <c r="G1" t="s">
-        <v>453</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="2">
@@ -3949,25 +5771,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>1061</v>
       </c>
       <c r="B1" t="s">
-        <v>455</v>
+        <v>1062</v>
       </c>
       <c r="C1" t="s">
-        <v>456</v>
+        <v>1063</v>
       </c>
       <c r="D1" t="s">
-        <v>457</v>
+        <v>1064</v>
       </c>
       <c r="E1" t="s">
-        <v>458</v>
+        <v>1065</v>
       </c>
       <c r="F1" t="s">
-        <v>459</v>
+        <v>1066</v>
       </c>
       <c r="G1" t="s">
-        <v>460</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2">
@@ -4823,25 +6645,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>461</v>
+        <v>1068</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>1069</v>
       </c>
       <c r="C1" t="s">
-        <v>463</v>
+        <v>1070</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>1071</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>1072</v>
       </c>
       <c r="F1" t="s">
-        <v>466</v>
+        <v>1073</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2">
@@ -5718,25 +7540,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>1075</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>1076</v>
       </c>
       <c r="C1" t="s">
-        <v>470</v>
+        <v>1077</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>1078</v>
       </c>
       <c r="E1" t="s">
-        <v>472</v>
+        <v>1079</v>
       </c>
       <c r="F1" t="s">
-        <v>473</v>
+        <v>1080</v>
       </c>
       <c r="G1" t="s">
-        <v>474</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2">
@@ -6613,25 +8435,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>475</v>
+        <v>1082</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>1083</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>1084</v>
       </c>
       <c r="D1" t="s">
-        <v>478</v>
+        <v>1085</v>
       </c>
       <c r="E1" t="s">
-        <v>479</v>
+        <v>1086</v>
       </c>
       <c r="F1" t="s">
-        <v>480</v>
+        <v>1087</v>
       </c>
       <c r="G1" t="s">
-        <v>481</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2">
@@ -7508,25 +9330,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>1089</v>
       </c>
       <c r="B1" t="s">
-        <v>483</v>
+        <v>1090</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>1091</v>
       </c>
       <c r="D1" t="s">
-        <v>485</v>
+        <v>1092</v>
       </c>
       <c r="E1" t="s">
-        <v>486</v>
+        <v>1093</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>1094</v>
       </c>
       <c r="G1" t="s">
-        <v>488</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2">
@@ -8403,25 +10225,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>489</v>
+        <v>1096</v>
       </c>
       <c r="B1" t="s">
-        <v>490</v>
+        <v>1097</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>1098</v>
       </c>
       <c r="D1" t="s">
-        <v>492</v>
+        <v>1099</v>
       </c>
       <c r="E1" t="s">
-        <v>493</v>
+        <v>1100</v>
       </c>
       <c r="F1" t="s">
-        <v>494</v>
+        <v>1101</v>
       </c>
       <c r="G1" t="s">
-        <v>495</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2">
@@ -9319,25 +11141,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>1103</v>
       </c>
       <c r="B1" t="s">
-        <v>497</v>
+        <v>1104</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>1105</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>1106</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>1107</v>
       </c>
       <c r="F1" t="s">
-        <v>501</v>
+        <v>1108</v>
       </c>
       <c r="G1" t="s">
-        <v>502</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2">
@@ -10235,25 +12057,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>1110</v>
       </c>
       <c r="B1" t="s">
-        <v>504</v>
+        <v>1111</v>
       </c>
       <c r="C1" t="s">
-        <v>505</v>
+        <v>1112</v>
       </c>
       <c r="D1" t="s">
-        <v>506</v>
+        <v>1113</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>1114</v>
       </c>
       <c r="F1" t="s">
-        <v>508</v>
+        <v>1115</v>
       </c>
       <c r="G1" t="s">
-        <v>509</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2">
@@ -11151,97 +12973,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -11255,25 +13077,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>998</v>
       </c>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>999</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>1001</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>1002</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>1003</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2">
@@ -12129,21 +13951,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>529</v>
+        <v>1136</v>
       </c>
       <c r="B1" t="s">
-        <v>531</v>
+        <v>1138</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>1139</v>
       </c>
       <c r="C2">
         <v>1.9999999494757503e-05</v>
@@ -12151,10 +13973,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>1140</v>
       </c>
       <c r="C3">
         <v>9.9999997473787516e-05</v>
@@ -12162,10 +13984,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>1141</v>
       </c>
       <c r="C4">
         <v>9.9999997473787516e-05</v>
@@ -12173,10 +13995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>1142</v>
       </c>
       <c r="C5">
         <v>9.9999997473787516e-05</v>
@@ -12184,10 +14006,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>1143</v>
       </c>
       <c r="C6">
         <v>2.9999999242136255e-05</v>
@@ -12195,10 +14017,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>1144</v>
       </c>
       <c r="C7">
         <v>0.00019999999494757503</v>
@@ -12206,10 +14028,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>1145</v>
       </c>
       <c r="C8">
         <v>9.9999997473787516e-05</v>
@@ -12217,10 +14039,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>1146</v>
       </c>
       <c r="C9">
         <v>9.9999997473787516e-05</v>
@@ -12228,10 +14050,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>1147</v>
       </c>
       <c r="C10">
         <v>7.9999997979030013e-05</v>
@@ -12239,10 +14061,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>1148</v>
       </c>
       <c r="C11">
         <v>0.00019999999494757503</v>
@@ -12250,10 +14072,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>1149</v>
       </c>
       <c r="C12">
         <v>0.00030000001424923539</v>
@@ -12261,10 +14083,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B13" t="s">
-        <v>543</v>
+        <v>1150</v>
       </c>
       <c r="C13">
         <v>0.00030000001424923539</v>
@@ -12272,10 +14094,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B14" t="s">
-        <v>544</v>
+        <v>1151</v>
       </c>
       <c r="C14">
         <v>0.00019999999494757503</v>
@@ -12283,10 +14105,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B15" t="s">
-        <v>545</v>
+        <v>1152</v>
       </c>
       <c r="C15">
         <v>0.00019999999494757503</v>
@@ -12294,10 +14116,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>1153</v>
       </c>
       <c r="C16">
         <v>0.00019999999494757503</v>
@@ -12305,10 +14127,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B17" t="s">
-        <v>547</v>
+        <v>1154</v>
       </c>
       <c r="C17">
         <v>0.00019999999494757503</v>
@@ -12316,10 +14138,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B18" t="s">
-        <v>548</v>
+        <v>1155</v>
       </c>
       <c r="C18">
         <v>9.9999997473787516e-05</v>
@@ -12327,10 +14149,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>1137</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>1156</v>
       </c>
       <c r="C19">
         <v>0.00019999999494757503</v>
@@ -12347,25 +14169,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>1158</v>
       </c>
       <c r="B1" t="s">
-        <v>552</v>
+        <v>1159</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>1160</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>1161</v>
       </c>
       <c r="E1" t="s">
-        <v>555</v>
+        <v>1162</v>
       </c>
       <c r="F1" t="s">
-        <v>556</v>
+        <v>1163</v>
       </c>
       <c r="G1" t="s">
-        <v>557</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2">
@@ -13011,25 +14833,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>684</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>685</v>
+        <v>1292</v>
       </c>
       <c r="C1" t="s">
-        <v>686</v>
+        <v>1293</v>
       </c>
       <c r="D1" t="s">
-        <v>687</v>
+        <v>1294</v>
       </c>
       <c r="E1" t="s">
-        <v>688</v>
+        <v>1295</v>
       </c>
       <c r="F1" t="s">
-        <v>689</v>
+        <v>1296</v>
       </c>
       <c r="G1" t="s">
-        <v>690</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2">
@@ -13528,25 +15350,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>691</v>
+        <v>1298</v>
       </c>
       <c r="B1" t="s">
-        <v>692</v>
+        <v>1299</v>
       </c>
       <c r="C1" t="s">
-        <v>693</v>
+        <v>1300</v>
       </c>
       <c r="D1" t="s">
-        <v>694</v>
+        <v>1301</v>
       </c>
       <c r="E1" t="s">
-        <v>695</v>
+        <v>1302</v>
       </c>
       <c r="F1" t="s">
-        <v>696</v>
+        <v>1303</v>
       </c>
       <c r="G1" t="s">
-        <v>697</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2">
@@ -14066,25 +15888,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>1179</v>
       </c>
       <c r="B1" t="s">
-        <v>573</v>
+        <v>1180</v>
       </c>
       <c r="C1" t="s">
-        <v>574</v>
+        <v>1181</v>
       </c>
       <c r="D1" t="s">
-        <v>575</v>
+        <v>1182</v>
       </c>
       <c r="E1" t="s">
-        <v>576</v>
+        <v>1183</v>
       </c>
       <c r="F1" t="s">
-        <v>577</v>
+        <v>1184</v>
       </c>
       <c r="G1" t="s">
-        <v>578</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2">
@@ -14730,25 +16552,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>698</v>
+        <v>1305</v>
       </c>
       <c r="B1" t="s">
-        <v>699</v>
+        <v>1306</v>
       </c>
       <c r="C1" t="s">
-        <v>700</v>
+        <v>1307</v>
       </c>
       <c r="D1" t="s">
-        <v>701</v>
+        <v>1308</v>
       </c>
       <c r="E1" t="s">
-        <v>702</v>
+        <v>1309</v>
       </c>
       <c r="F1" t="s">
-        <v>703</v>
+        <v>1310</v>
       </c>
       <c r="G1" t="s">
-        <v>704</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2">
@@ -15268,25 +17090,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>705</v>
+        <v>1312</v>
       </c>
       <c r="B1" t="s">
-        <v>706</v>
+        <v>1313</v>
       </c>
       <c r="C1" t="s">
-        <v>707</v>
+        <v>1314</v>
       </c>
       <c r="D1" t="s">
-        <v>708</v>
+        <v>1315</v>
       </c>
       <c r="E1" t="s">
-        <v>709</v>
+        <v>1316</v>
       </c>
       <c r="F1" t="s">
-        <v>710</v>
+        <v>1317</v>
       </c>
       <c r="G1" t="s">
-        <v>711</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="2">
@@ -15806,25 +17628,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>712</v>
+        <v>1319</v>
       </c>
       <c r="B1" t="s">
-        <v>713</v>
+        <v>1320</v>
       </c>
       <c r="C1" t="s">
-        <v>714</v>
+        <v>1321</v>
       </c>
       <c r="D1" t="s">
-        <v>715</v>
+        <v>1322</v>
       </c>
       <c r="E1" t="s">
-        <v>716</v>
+        <v>1323</v>
       </c>
       <c r="F1" t="s">
-        <v>717</v>
+        <v>1324</v>
       </c>
       <c r="G1" t="s">
-        <v>718</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2">
@@ -16344,25 +18166,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>600</v>
+        <v>1207</v>
       </c>
       <c r="B1" t="s">
-        <v>601</v>
+        <v>1208</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>1209</v>
       </c>
       <c r="D1" t="s">
-        <v>603</v>
+        <v>1210</v>
       </c>
       <c r="E1" t="s">
-        <v>604</v>
+        <v>1211</v>
       </c>
       <c r="F1" t="s">
-        <v>605</v>
+        <v>1212</v>
       </c>
       <c r="G1" t="s">
-        <v>606</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="2">
@@ -16483,7 +18305,7 @@
         <v>0.54328030347824097</v>
       </c>
       <c r="D7" s="1">
-        <v>0.56821739673614502</v>
+        <v>0.5664181113243103</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -16504,7 +18326,7 @@
         <v>0.58862626552581787</v>
       </c>
       <c r="D8" s="1">
-        <v>0.56821739673614502</v>
+        <v>0.5664181113243103</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -16522,10 +18344,10 @@
         <v>1.0036119222640991</v>
       </c>
       <c r="C9" s="1">
-        <v>0.57152235507965088</v>
+        <v>0.56534546613693237</v>
       </c>
       <c r="D9" s="1">
-        <v>0.56821739673614502</v>
+        <v>0.56534546613693237</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -16540,19 +18362,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0031781196594238</v>
+        <v>1.0031719207763672</v>
       </c>
       <c r="C10" s="1">
-        <v>0.44557371735572815</v>
+        <v>0.45175063610076904</v>
       </c>
       <c r="D10" s="1">
-        <v>0.44557371735572815</v>
+        <v>0.45175063610076904</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>106452</v>
+        <v>105600</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -17008,25 +18830,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>614</v>
+        <v>1221</v>
       </c>
       <c r="B1" t="s">
-        <v>615</v>
+        <v>1222</v>
       </c>
       <c r="C1" t="s">
-        <v>616</v>
+        <v>1223</v>
       </c>
       <c r="D1" t="s">
-        <v>617</v>
+        <v>1224</v>
       </c>
       <c r="E1" t="s">
-        <v>618</v>
+        <v>1225</v>
       </c>
       <c r="F1" t="s">
-        <v>619</v>
+        <v>1226</v>
       </c>
       <c r="G1" t="s">
-        <v>620</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="2">
@@ -17037,10 +18859,10 @@
         <v>1.0078837871551514</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0504921674728394</v>
+        <v>1.0491085052490234</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0504921674728394</v>
+        <v>1.0491085052490234</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -17057,19 +18879,19 @@
         <v>0.98000001907348633</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0083185434341431</v>
+        <v>1.0083043575286865</v>
       </c>
       <c r="C3" s="1">
-        <v>0.74355709552764893</v>
+        <v>0.74439489841461182</v>
       </c>
       <c r="D3" s="1">
-        <v>0.74355709552764893</v>
+        <v>0.74439489841461182</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41760</v>
+        <v>41628</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -17078,19 +18900,19 @@
         <v>0.99000000953674316</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0056440830230713</v>
+        <v>1.005638599395752</v>
       </c>
       <c r="C4" s="1">
-        <v>0.62890863418579102</v>
+        <v>0.63436657190322876</v>
       </c>
       <c r="D4" s="1">
-        <v>0.6328732967376709</v>
+        <v>0.63436657190322876</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>62400</v>
+        <v>62334</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -17105,7 +18927,7 @@
         <v>0.47426590323448181</v>
       </c>
       <c r="D5" s="1">
-        <v>0.6328732967376709</v>
+        <v>0.63388442993164063</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -17126,7 +18948,7 @@
         <v>0.74246370792388916</v>
       </c>
       <c r="D6" s="1">
-        <v>0.6328732967376709</v>
+        <v>0.63388442993164063</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -17144,10 +18966,10 @@
         <v>1.0044646263122559</v>
       </c>
       <c r="C7" s="1">
-        <v>0.63813239336013794</v>
+        <v>0.63725286722183228</v>
       </c>
       <c r="D7" s="1">
-        <v>0.6328732967376709</v>
+        <v>0.63388442993164063</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -17162,19 +18984,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0040960311889648</v>
+        <v>1.004095196723938</v>
       </c>
       <c r="C8" s="1">
-        <v>0.38392481207847595</v>
+        <v>0.38480439782142639</v>
       </c>
       <c r="D8" s="1">
-        <v>0.58895808458328247</v>
+        <v>0.58875417709350586</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>86400</v>
+        <v>86388</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -17189,7 +19011,7 @@
         <v>0.70413613319396973</v>
       </c>
       <c r="D9" s="1">
-        <v>0.58895808458328247</v>
+        <v>0.58875417709350586</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -17672,25 +19494,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>1005</v>
       </c>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>1006</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>1007</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>1008</v>
       </c>
       <c r="E1" t="s">
-        <v>402</v>
+        <v>1009</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>1010</v>
       </c>
       <c r="G1" t="s">
-        <v>404</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2">
@@ -18546,25 +20368,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>621</v>
+        <v>1228</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>1229</v>
       </c>
       <c r="C1" t="s">
-        <v>623</v>
+        <v>1230</v>
       </c>
       <c r="D1" t="s">
-        <v>624</v>
+        <v>1231</v>
       </c>
       <c r="E1" t="s">
-        <v>625</v>
+        <v>1232</v>
       </c>
       <c r="F1" t="s">
-        <v>626</v>
+        <v>1233</v>
       </c>
       <c r="G1" t="s">
-        <v>627</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2">
@@ -18572,19 +20394,19 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0098371505737305</v>
+        <v>1.009810209274292</v>
       </c>
       <c r="C2" s="1">
-        <v>0.76377600431442261</v>
+        <v>0.76639515161514282</v>
       </c>
       <c r="D2" s="1">
-        <v>0.80406337976455688</v>
+        <v>0.80508232116699219</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>32160</v>
+        <v>32100</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -18598,10 +20420,10 @@
         <v>1.0073263645172119</v>
       </c>
       <c r="C3" s="1">
-        <v>0.83990204334259033</v>
+        <v>0.83965456485748291</v>
       </c>
       <c r="D3" s="1">
-        <v>0.80406337976455688</v>
+        <v>0.80508232116699219</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -18616,19 +20438,19 @@
         <v>0.99000000953674316</v>
       </c>
       <c r="B4" s="1">
-        <v>1.005635142326355</v>
+        <v>1.005632758140564</v>
       </c>
       <c r="C4" s="1">
-        <v>0.65758132934570313</v>
+        <v>0.65070706605911255</v>
       </c>
       <c r="D4" s="1">
-        <v>0.65758132934570313</v>
+        <v>0.65070706605911255</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>65400</v>
+        <v>65100</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -18637,19 +20459,19 @@
         <v>0.99099999666213989</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0052839517593384</v>
+        <v>1.0052745342254639</v>
       </c>
       <c r="C5" s="1">
-        <v>0.59594923257827759</v>
+        <v>0.60529845952987671</v>
       </c>
       <c r="D5" s="1">
-        <v>0.62064355611801147</v>
+        <v>0.62496179342269897</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70440</v>
+        <v>70200</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -18664,7 +20486,7 @@
         <v>0.6425439715385437</v>
       </c>
       <c r="D6" s="1">
-        <v>0.62064355611801147</v>
+        <v>0.62496179342269897</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -18682,10 +20504,10 @@
         <v>1.0045064687728882</v>
       </c>
       <c r="C7" s="1">
-        <v>0.60046893358230591</v>
+        <v>0.4338289201259613</v>
       </c>
       <c r="D7" s="1">
-        <v>0.60046893358230591</v>
+        <v>0.61175620555877686</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -18700,19 +20522,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B8" s="1">
-        <v>1.00409996509552</v>
+        <v>1.0039323568344116</v>
       </c>
       <c r="C8" s="1">
-        <v>0.54903322458267212</v>
+        <v>0.71568316221237183</v>
       </c>
       <c r="D8" s="1">
-        <v>0.54903322458267212</v>
+        <v>0.61175620555877686</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>90528</v>
+        <v>90000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -18724,10 +20546,10 @@
         <v>1.0036426782608032</v>
       </c>
       <c r="C9" s="1">
-        <v>0.53827363252639771</v>
+        <v>0.5346565842628479</v>
       </c>
       <c r="D9" s="1">
-        <v>0.53827363252639771</v>
+        <v>0.5346565842628479</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -18742,19 +20564,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0031753778457642</v>
+        <v>1.0031718015670776</v>
       </c>
       <c r="C10" s="1">
-        <v>0.43727558851242065</v>
+        <v>0.44089263677597046</v>
       </c>
       <c r="D10" s="1">
-        <v>0.43727558851242065</v>
+        <v>0.44089263677597046</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>121200</v>
+        <v>121080</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -19210,25 +21032,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>628</v>
+        <v>1235</v>
       </c>
       <c r="B1" t="s">
-        <v>629</v>
+        <v>1236</v>
       </c>
       <c r="C1" t="s">
-        <v>630</v>
+        <v>1237</v>
       </c>
       <c r="D1" t="s">
-        <v>631</v>
+        <v>1238</v>
       </c>
       <c r="E1" t="s">
-        <v>632</v>
+        <v>1239</v>
       </c>
       <c r="F1" t="s">
-        <v>633</v>
+        <v>1240</v>
       </c>
       <c r="G1" t="s">
-        <v>634</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2">
@@ -19236,19 +21058,19 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0151407718658447</v>
+        <v>1.015134334564209</v>
       </c>
       <c r="C2" s="1">
-        <v>0.67945647239685059</v>
+        <v>0.68008995056152344</v>
       </c>
       <c r="D2" s="1">
-        <v>0.67945647239685059</v>
+        <v>0.68008995056152344</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42000</v>
+        <v>41880</v>
       </c>
       <c r="G2" s="1">
         <v>0.97000002861022949</v>
@@ -19874,25 +21696,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>635</v>
+        <v>1242</v>
       </c>
       <c r="B1" t="s">
-        <v>636</v>
+        <v>1243</v>
       </c>
       <c r="C1" t="s">
-        <v>637</v>
+        <v>1244</v>
       </c>
       <c r="D1" t="s">
-        <v>638</v>
+        <v>1245</v>
       </c>
       <c r="E1" t="s">
-        <v>639</v>
+        <v>1246</v>
       </c>
       <c r="F1" t="s">
-        <v>640</v>
+        <v>1247</v>
       </c>
       <c r="G1" t="s">
-        <v>641</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2">
@@ -19900,19 +21722,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025621652603149</v>
+        <v>1.0025300979614258</v>
       </c>
       <c r="C2" s="1">
-        <v>0.20732419192790985</v>
+        <v>0.22701236605644226</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2258383184671402</v>
+        <v>0.24147605895996094</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21710220</v>
+        <v>13794000</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -19923,19 +21745,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017653703689575</v>
+        <v>1.0017529726028442</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23818106949329376</v>
+        <v>0.25051587820053101</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2258383184671402</v>
+        <v>0.24147605895996094</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>24580224</v>
+        <v>16428000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -19956,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>108000000</v>
+        <v>128472208</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -19977,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>115200000</v>
+        <v>137037024</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -19998,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>122400000</v>
+        <v>145601840</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -20019,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>129600000</v>
+        <v>154166656</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -20040,7 +21862,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>136800000</v>
+        <v>162731456</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -20061,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>144000000</v>
+        <v>171296288</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -20082,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>151200000</v>
+        <v>179861088</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -20103,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>158400000</v>
+        <v>188425904</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -20124,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>165600000</v>
+        <v>196990720</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -20145,7 +21967,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>172800000</v>
+        <v>205555536</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -20166,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>180000000</v>
+        <v>214120352</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -20187,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>187200000</v>
+        <v>222685152</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -20208,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>194400000</v>
+        <v>231249984</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -20229,7 +22051,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>201600000</v>
+        <v>239814784</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -20250,7 +22072,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>208800000</v>
+        <v>248379600</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -20271,7 +22093,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>216000000</v>
+        <v>256944416</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -20292,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>223200000</v>
+        <v>265509232</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -20313,7 +22135,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>230400000</v>
+        <v>274074048</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -20334,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>237600000</v>
+        <v>282638848</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -20349,25 +22171,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>642</v>
+        <v>1249</v>
       </c>
       <c r="B1" t="s">
-        <v>643</v>
+        <v>1250</v>
       </c>
       <c r="C1" t="s">
-        <v>644</v>
+        <v>1251</v>
       </c>
       <c r="D1" t="s">
-        <v>645</v>
+        <v>1252</v>
       </c>
       <c r="E1" t="s">
-        <v>646</v>
+        <v>1253</v>
       </c>
       <c r="F1" t="s">
-        <v>647</v>
+        <v>1254</v>
       </c>
       <c r="G1" t="s">
-        <v>648</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="2">
@@ -20375,19 +22197,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025280714035034</v>
+        <v>1.0025621652603149</v>
       </c>
       <c r="C2" s="1">
-        <v>0.22548498213291168</v>
+        <v>0.082417763769626617</v>
       </c>
       <c r="D2" s="1">
-        <v>0.23979935050010681</v>
+        <v>0.32567131519317627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24000000</v>
+        <v>21710220</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -20398,19 +22220,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017493963241577</v>
+        <v>1.0016402006149292</v>
       </c>
       <c r="C3" s="1">
-        <v>0.25411373376846313</v>
+        <v>0.36309495568275452</v>
       </c>
       <c r="D3" s="1">
-        <v>0.23979935050010681</v>
+        <v>0.32567131519317627</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>30797316</v>
+        <v>24000000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -20431,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>94689000</v>
+        <v>108000000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -20452,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>101001600</v>
+        <v>115200000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -20473,7 +22295,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>107314200</v>
+        <v>122400000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -20494,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>113626800</v>
+        <v>129600000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -20515,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>119939400</v>
+        <v>136800000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -20536,7 +22358,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>126252000</v>
+        <v>144000000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -20557,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>132564600</v>
+        <v>151200000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -20578,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>138877200</v>
+        <v>158400000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -20599,7 +22421,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>145189792</v>
+        <v>165600000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -20620,7 +22442,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>151502400</v>
+        <v>172800000</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -20641,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>157815008</v>
+        <v>180000000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -20662,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>164127600</v>
+        <v>187200000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -20683,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>170440192</v>
+        <v>194400000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -20704,7 +22526,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>176752800</v>
+        <v>201600000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -20725,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>183065408</v>
+        <v>208800000</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -20746,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>189378000</v>
+        <v>216000000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -20767,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>195690592</v>
+        <v>223200000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -20788,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>202003200</v>
+        <v>230400000</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -20809,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>208315808</v>
+        <v>237600000</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -20824,25 +22646,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>649</v>
+        <v>1256</v>
       </c>
       <c r="B1" t="s">
-        <v>650</v>
+        <v>1257</v>
       </c>
       <c r="C1" t="s">
-        <v>651</v>
+        <v>1258</v>
       </c>
       <c r="D1" t="s">
-        <v>652</v>
+        <v>1259</v>
       </c>
       <c r="E1" t="s">
-        <v>653</v>
+        <v>1260</v>
       </c>
       <c r="F1" t="s">
-        <v>654</v>
+        <v>1261</v>
       </c>
       <c r="G1" t="s">
-        <v>655</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2">
@@ -20850,19 +22672,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025128126144409</v>
+        <v>1.0025280714035034</v>
       </c>
       <c r="C2" s="1">
-        <v>0.21259219944477081</v>
+        <v>0.22548498213291168</v>
       </c>
       <c r="D2" s="1">
-        <v>0.25730463862419128</v>
+        <v>0.23979935050010681</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21600000</v>
+        <v>24000000</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -20873,19 +22695,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017212629318237</v>
+        <v>1.0017493963241577</v>
       </c>
       <c r="C3" s="1">
-        <v>0.28214487433433533</v>
+        <v>0.25411373376846313</v>
       </c>
       <c r="D3" s="1">
-        <v>0.25730463862419128</v>
+        <v>0.23979935050010681</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>28865400</v>
+        <v>30797316</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -20906,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>69624000</v>
+        <v>94689000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -20927,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>74265600</v>
+        <v>101001600</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -20948,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>78907200</v>
+        <v>107314200</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -20969,7 +22791,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83548800</v>
+        <v>113626800</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -20990,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>88190400</v>
+        <v>119939400</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -21011,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>92832000</v>
+        <v>126252000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -21032,7 +22854,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>97473600</v>
+        <v>132564600</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -21053,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>102115200</v>
+        <v>138877200</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -21074,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>106756800</v>
+        <v>145189792</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -21095,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>111398400</v>
+        <v>151502400</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -21116,7 +22938,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>116040000</v>
+        <v>157815008</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -21137,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>120681600</v>
+        <v>164127600</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -21158,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>125323200</v>
+        <v>170440192</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -21179,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>129964800</v>
+        <v>176752800</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -21200,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>134606400</v>
+        <v>183065408</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -21221,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>139248000</v>
+        <v>189378000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -21242,7 +23064,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>143889600</v>
+        <v>195690592</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -21263,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>148531200</v>
+        <v>202003200</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -21284,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>153172800</v>
+        <v>208315808</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -21299,25 +23121,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>656</v>
+        <v>872</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>873</v>
       </c>
       <c r="C1" t="s">
-        <v>658</v>
+        <v>874</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>875</v>
       </c>
       <c r="E1" t="s">
-        <v>660</v>
+        <v>876</v>
       </c>
       <c r="F1" t="s">
-        <v>661</v>
+        <v>877</v>
       </c>
       <c r="G1" t="s">
-        <v>662</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2">
@@ -21325,19 +23147,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.002534031867981</v>
+        <v>1.0025128126144409</v>
       </c>
       <c r="C2" s="1">
-        <v>0.19613939523696899</v>
+        <v>0.21259219944477081</v>
       </c>
       <c r="D2" s="1">
-        <v>0.24875834584236145</v>
+        <v>0.25730463862419128</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37411200</v>
+        <v>21600000</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -21348,19 +23170,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017259120941162</v>
+        <v>1.0017212629318237</v>
       </c>
       <c r="C3" s="1">
-        <v>0.27745959162712097</v>
+        <v>0.28214487433433533</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24875834584236145</v>
+        <v>0.25730463862419128</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46764000</v>
+        <v>28865400</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -21381,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>201240000</v>
+        <v>69624000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -21402,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>214656000</v>
+        <v>74265600</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -21423,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>228072000</v>
+        <v>78907200</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -21444,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>241488000</v>
+        <v>83548800</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -21465,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>254904000</v>
+        <v>88190400</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -21486,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>268320000</v>
+        <v>92832000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -21507,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>281736000</v>
+        <v>97473600</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -21528,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>295152000</v>
+        <v>102115200</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -21549,7 +23371,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>308568000</v>
+        <v>106756800</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -21570,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>321984000</v>
+        <v>111398400</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -21591,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>335400000</v>
+        <v>116040000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -21612,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>348816000</v>
+        <v>120681600</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -21633,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>362232000</v>
+        <v>125323200</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -21654,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>375648000</v>
+        <v>129964800</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -21675,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>389064000</v>
+        <v>134606400</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -21696,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>402480000</v>
+        <v>139248000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -21717,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>415896000</v>
+        <v>143889600</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -21738,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>429312000</v>
+        <v>148531200</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -21759,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>442728000</v>
+        <v>153172800</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -21774,25 +23596,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>663</v>
+        <v>1263</v>
       </c>
       <c r="B1" t="s">
-        <v>664</v>
+        <v>1264</v>
       </c>
       <c r="C1" t="s">
-        <v>665</v>
+        <v>1265</v>
       </c>
       <c r="D1" t="s">
-        <v>666</v>
+        <v>1266</v>
       </c>
       <c r="E1" t="s">
-        <v>667</v>
+        <v>1267</v>
       </c>
       <c r="F1" t="s">
-        <v>668</v>
+        <v>1268</v>
       </c>
       <c r="G1" t="s">
-        <v>669</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2">
@@ -21800,19 +23622,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025482177734375</v>
+        <v>1.002534031867981</v>
       </c>
       <c r="C2" s="1">
-        <v>0.22179423272609711</v>
+        <v>0.19613939523696899</v>
       </c>
       <c r="D2" s="1">
-        <v>0.23200327157974243</v>
+        <v>0.24875834584236145</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>76863600</v>
+        <v>37411200</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -21823,19 +23645,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017658472061157</v>
+        <v>1.0017259120941162</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23767495155334473</v>
+        <v>0.27745959162712097</v>
       </c>
       <c r="D3" s="1">
-        <v>0.23200327157974243</v>
+        <v>0.24875834584236145</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>111876000</v>
+        <v>46764000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -21856,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>308880000</v>
+        <v>201240000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -21877,7 +23699,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>329472000</v>
+        <v>214656000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -21898,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>350064000</v>
+        <v>228072000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -21919,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>370656000</v>
+        <v>241488000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -21940,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>391248000</v>
+        <v>254904000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -21961,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>411840000</v>
+        <v>268320000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -21982,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>432432000</v>
+        <v>281736000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -22003,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>453024000</v>
+        <v>295152000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -22024,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>473616000</v>
+        <v>308568000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -22045,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>494208000</v>
+        <v>321984000</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -22066,7 +23888,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>514800000</v>
+        <v>335400000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -22087,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>535392000</v>
+        <v>348816000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -22108,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>555984000</v>
+        <v>362232000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -22129,7 +23951,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>576576000</v>
+        <v>375648000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -22150,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>597168000</v>
+        <v>389064000</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -22171,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>617760000</v>
+        <v>402480000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -22192,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>638352000</v>
+        <v>415896000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -22213,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>658944000</v>
+        <v>429312000</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -22234,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>679536000</v>
+        <v>442728000</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -22249,25 +24071,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>670</v>
+        <v>1270</v>
       </c>
       <c r="B1" t="s">
-        <v>671</v>
+        <v>1271</v>
       </c>
       <c r="C1" t="s">
-        <v>672</v>
+        <v>1272</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>1273</v>
       </c>
       <c r="E1" t="s">
-        <v>674</v>
+        <v>1274</v>
       </c>
       <c r="F1" t="s">
-        <v>675</v>
+        <v>1275</v>
       </c>
       <c r="G1" t="s">
-        <v>676</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="2">
@@ -22275,19 +24097,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025327205657959</v>
+        <v>1.0025482177734375</v>
       </c>
       <c r="C2" s="1">
-        <v>0.16632203757762909</v>
+        <v>0.22179423272609711</v>
       </c>
       <c r="D2" s="1">
-        <v>0.24221351742744446</v>
+        <v>0.23200327157974243</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>52800000</v>
+        <v>76863600</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -22298,19 +24120,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0016946792602539</v>
+        <v>1.0017658472061157</v>
       </c>
       <c r="C3" s="1">
-        <v>0.30861857533454895</v>
+        <v>0.23767495155334473</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24221351742744446</v>
+        <v>0.23200327157974243</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>88454280</v>
+        <v>111876000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -22331,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>270000000</v>
+        <v>308880000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -22352,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>288000000</v>
+        <v>329472000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -22373,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>306000000</v>
+        <v>350064000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -22394,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>324000000</v>
+        <v>370656000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -22415,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>342000000</v>
+        <v>391248000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -22436,7 +24258,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>360000000</v>
+        <v>411840000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -22457,7 +24279,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>378000000</v>
+        <v>432432000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -22478,7 +24300,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>396000000</v>
+        <v>453024000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -22499,7 +24321,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>414000000</v>
+        <v>473616000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -22520,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>432000000</v>
+        <v>494208000</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -22541,7 +24363,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>450000000</v>
+        <v>514800000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -22562,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>468000000</v>
+        <v>535392000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -22583,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>486000000</v>
+        <v>555984000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -22604,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>504000000</v>
+        <v>576576000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -22625,7 +24447,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>522000000</v>
+        <v>597168000</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -22646,7 +24468,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>540000000</v>
+        <v>617760000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -22667,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>558000000</v>
+        <v>638352000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -22688,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>576000000</v>
+        <v>658944000</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -22709,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>594000000</v>
+        <v>679536000</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -22724,25 +24546,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>677</v>
+        <v>1277</v>
       </c>
       <c r="B1" t="s">
-        <v>678</v>
+        <v>1278</v>
       </c>
       <c r="C1" t="s">
-        <v>679</v>
+        <v>1279</v>
       </c>
       <c r="D1" t="s">
-        <v>680</v>
+        <v>1280</v>
       </c>
       <c r="E1" t="s">
-        <v>681</v>
+        <v>1281</v>
       </c>
       <c r="F1" t="s">
-        <v>682</v>
+        <v>1282</v>
       </c>
       <c r="G1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="2">
@@ -22750,19 +24572,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0025286674499512</v>
+        <v>1.0025327205657959</v>
       </c>
       <c r="C2" s="1">
-        <v>0.19326084852218628</v>
+        <v>0.16632203757762909</v>
       </c>
       <c r="D2" s="1">
-        <v>0.25267839431762695</v>
+        <v>0.24221351742744446</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>69264000</v>
+        <v>52800000</v>
       </c>
       <c r="G2" s="1">
         <v>0.99699997901916504</v>
@@ -22773,19 +24595,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0017176866531372</v>
+        <v>1.0016946792602539</v>
       </c>
       <c r="C3" s="1">
-        <v>0.28568816184997559</v>
+        <v>0.30861857533454895</v>
       </c>
       <c r="D3" s="1">
-        <v>0.25267839431762695</v>
+        <v>0.24221351742744446</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>86477520</v>
+        <v>88454280</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -22806,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>165330000</v>
+        <v>270000000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -22827,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>176352000</v>
+        <v>288000000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -22848,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>187374000</v>
+        <v>306000000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -22869,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>198396000</v>
+        <v>324000000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -22890,7 +24712,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>209418000</v>
+        <v>342000000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -22911,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>220440000</v>
+        <v>360000000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -22932,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>231462000</v>
+        <v>378000000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -22953,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>242484000</v>
+        <v>396000000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -22974,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>253506000</v>
+        <v>414000000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -22995,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>264528000</v>
+        <v>432000000</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -23016,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>275550016</v>
+        <v>450000000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -23037,7 +24859,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>286572000</v>
+        <v>468000000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -23058,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>297593984</v>
+        <v>486000000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -23079,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>308616000</v>
+        <v>504000000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -23100,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>319638016</v>
+        <v>522000000</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -23121,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>330660000</v>
+        <v>540000000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -23142,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>341681984</v>
+        <v>558000000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -23163,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>352704000</v>
+        <v>576000000</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -23184,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>363726016</v>
+        <v>594000000</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -23194,145 +25016,145 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>719</v>
+        <v>1284</v>
       </c>
       <c r="B1" t="s">
-        <v>720</v>
+        <v>1285</v>
       </c>
       <c r="C1" t="s">
-        <v>721</v>
+        <v>1286</v>
       </c>
       <c r="D1" t="s">
-        <v>722</v>
+        <v>1287</v>
       </c>
       <c r="E1" t="s">
-        <v>723</v>
+        <v>1288</v>
       </c>
       <c r="F1" t="s">
-        <v>724</v>
+        <v>1289</v>
       </c>
       <c r="G1" t="s">
-        <v>725</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.99400001764297485</v>
+        <v>0.99699997901916504</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0044558048248291</v>
+        <v>1.0025286674499512</v>
       </c>
       <c r="C2" s="1">
-        <v>0.36671385169029236</v>
+        <v>0.19326084852218628</v>
       </c>
       <c r="D2" s="1">
-        <v>0.39545130729675293</v>
+        <v>0.25267839431762695</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48875760</v>
+        <v>69264000</v>
       </c>
       <c r="G2" s="1">
-        <v>0.99400001764297485</v>
+        <v>0.99699997901916504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0.99500000476837158</v>
+        <v>0.99800002574920654</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038148164749146</v>
+        <v>1.0017176866531372</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4200834333896637</v>
+        <v>0.28568816184997559</v>
       </c>
       <c r="D3" s="1">
-        <v>0.39545130729675293</v>
+        <v>0.25267839431762695</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>52920000</v>
+        <v>86477520</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>0.99599999189376831</v>
+        <v>0.99900001287460327</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032287836074829</v>
+        <v>1.0010010004043579</v>
       </c>
       <c r="C4" s="1">
-        <v>0.31617444753646851</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.31617444753646851</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>61800000</v>
+        <v>165330000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.99699997901916504</v>
+        <v>0.99910002946853638</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025396347045898</v>
+        <v>1.0009007453918457</v>
       </c>
       <c r="C5" s="1">
-        <v>0.20295411348342896</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.24019880592823029</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>82157760</v>
+        <v>176352000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>0.99800002574920654</v>
+        <v>0.99919998645782471</v>
       </c>
       <c r="B6" s="1">
-        <v>1.001738429069519</v>
+        <v>1.000800609588623</v>
       </c>
       <c r="C6" s="1">
-        <v>0.26502859592437744</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.24019880592823029</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>91366288</v>
+        <v>187374000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.99900001287460327</v>
+        <v>0.99930000305175781</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0010010004043579</v>
+        <v>1.0007004737854004</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -23344,16 +25166,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>308091584</v>
+        <v>198396000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.99910002946853638</v>
+        <v>0.99940001964569092</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0009007453918457</v>
+        <v>1.0006003379821777</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -23365,16 +25187,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>328631040</v>
+        <v>209418000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.99919998645782471</v>
+        <v>0.99949997663497925</v>
       </c>
       <c r="B9" s="1">
-        <v>1.000800609588623</v>
+        <v>1.0005003213882446</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -23386,16 +25208,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>349170464</v>
+        <v>220440000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.99930000305175781</v>
+        <v>0.99959999322891235</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0007004737854004</v>
+        <v>1.000400185585022</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -23407,16 +25229,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>369709888</v>
+        <v>231462000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>0.99940001964569092</v>
+        <v>0.99970000982284546</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0006003379821777</v>
+        <v>1.0003000497817993</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -23428,16 +25250,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>390249344</v>
+        <v>242484000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>0.99949997663497925</v>
+        <v>0.99980002641677856</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0005003213882446</v>
+        <v>1.0002000331878662</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -23449,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>410788800</v>
+        <v>253506000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>0.99959999322891235</v>
+        <v>0.99989998340606689</v>
       </c>
       <c r="B13" s="1">
-        <v>1.000400185585022</v>
+        <v>1.0001000165939331</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -23470,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>431328224</v>
+        <v>264528000</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>0.99970000982284546</v>
+        <v>0.99990999698638916</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0003000497817993</v>
+        <v>1.0000900030136108</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -23491,16 +25313,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>451867648</v>
+        <v>275550016</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0.99980002641677856</v>
+        <v>0.99992001056671143</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0002000331878662</v>
+        <v>1.0000799894332886</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -23512,16 +25334,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>472407104</v>
+        <v>286572000</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0.99989998340606689</v>
+        <v>0.99993002414703369</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0001000165939331</v>
+        <v>1.0000699758529663</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -23533,16 +25355,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>492946560</v>
+        <v>297593984</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>0.99990999698638916</v>
+        <v>0.99993997812271118</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0000900030136108</v>
+        <v>1.0000600814819336</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -23554,16 +25376,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>513485984</v>
+        <v>308616000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>0.99992001056671143</v>
+        <v>0.99994999170303345</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0000799894332886</v>
+        <v>1.0000500679016113</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -23575,16 +25397,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>534025408</v>
+        <v>319638016</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>0.99993002414703369</v>
+        <v>0.99996000528335571</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0000699758529663</v>
+        <v>1.0000400543212891</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -23596,16 +25418,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>554564864</v>
+        <v>330660000</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>0.99993997812271118</v>
+        <v>0.99997001886367798</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0000600814819336</v>
+        <v>1.0000300407409668</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -23617,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>575104320</v>
+        <v>341681984</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>0.99994999170303345</v>
+        <v>0.99997997283935547</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0000500679016113</v>
+        <v>1.0000200271606445</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -23638,16 +25460,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>595643776</v>
+        <v>352704000</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>0.99996000528335571</v>
+        <v>0.99998998641967773</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0000400543212891</v>
+        <v>1.0000100135803223</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -23659,72 +25481,9 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>616183168</v>
+        <v>363726016</v>
       </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>0.99997001886367798</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.0000300407409668</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>636722624</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>0.99997997283935547</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.0000200271606445</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>657262080</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>0.99998998641967773</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.0000100135803223</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>677801472</v>
-      </c>
-      <c r="G25" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -23737,25 +25496,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>1012</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>1013</v>
       </c>
       <c r="C1" t="s">
-        <v>407</v>
+        <v>1014</v>
       </c>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>1015</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>1016</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>1017</v>
       </c>
       <c r="G1" t="s">
-        <v>411</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2">
@@ -24611,25 +26370,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>726</v>
+        <v>1326</v>
       </c>
       <c r="B1" t="s">
-        <v>727</v>
+        <v>1327</v>
       </c>
       <c r="C1" t="s">
-        <v>728</v>
+        <v>1328</v>
       </c>
       <c r="D1" t="s">
-        <v>729</v>
+        <v>1329</v>
       </c>
       <c r="E1" t="s">
-        <v>730</v>
+        <v>1330</v>
       </c>
       <c r="F1" t="s">
-        <v>731</v>
+        <v>1331</v>
       </c>
       <c r="G1" t="s">
-        <v>732</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2">
@@ -24637,19 +26396,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0044493675231934</v>
+        <v>1.0044558048248291</v>
       </c>
       <c r="C2" s="1">
-        <v>0.37612855434417725</v>
+        <v>0.36671385169029236</v>
       </c>
       <c r="D2" s="1">
-        <v>0.38712063431739807</v>
+        <v>0.39545130729675293</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45500000</v>
+        <v>48875760</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -24660,19 +26419,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038180351257324</v>
+        <v>1.0038148164749146</v>
       </c>
       <c r="C3" s="1">
-        <v>0.39591428637504578</v>
+        <v>0.4200834333896637</v>
       </c>
       <c r="D3" s="1">
-        <v>0.38712063431739807</v>
+        <v>0.39545130729675293</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50200000</v>
+        <v>52920000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -24681,19 +26440,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032076835632324</v>
+        <v>1.0032287836074829</v>
       </c>
       <c r="C4" s="1">
-        <v>0.32376635074615479</v>
+        <v>0.31617444753646851</v>
       </c>
       <c r="D4" s="1">
-        <v>0.32376635074615479</v>
+        <v>0.31617444753646851</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57222808</v>
+        <v>61800000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -24702,19 +26461,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025261640548706</v>
+        <v>1.0025396347045898</v>
       </c>
       <c r="C5" s="1">
-        <v>0.2128337025642395</v>
+        <v>0.20295411348342896</v>
       </c>
       <c r="D5" s="1">
-        <v>0.24420571327209473</v>
+        <v>0.24019880592823029</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>81694080</v>
+        <v>82157760</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -24723,19 +26482,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0017348527908325</v>
+        <v>1.001738429069519</v>
       </c>
       <c r="C6" s="1">
-        <v>0.26860615611076355</v>
+        <v>0.26502859592437744</v>
       </c>
       <c r="D6" s="1">
-        <v>0.24420571327209473</v>
+        <v>0.24019880592823029</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>115733280</v>
+        <v>91366288</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -24756,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>379633184</v>
+        <v>308091584</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -24777,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>404942048</v>
+        <v>328631040</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -24798,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>430250944</v>
+        <v>349170464</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -24819,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>455559808</v>
+        <v>369709888</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -24840,7 +26599,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>480868704</v>
+        <v>390249344</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -24861,7 +26620,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>506177568</v>
+        <v>410788800</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -24882,7 +26641,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>531486464</v>
+        <v>431328224</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -24903,7 +26662,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>556795328</v>
+        <v>451867648</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -24924,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>582104192</v>
+        <v>472407104</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -24945,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>607413120</v>
+        <v>492946560</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -24966,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>632721984</v>
+        <v>513485984</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -24987,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>658030848</v>
+        <v>534025408</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -25008,7 +26767,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>683339712</v>
+        <v>554564864</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -25029,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>708648576</v>
+        <v>575104320</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -25050,7 +26809,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>733957504</v>
+        <v>595643776</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -25071,7 +26830,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>759266368</v>
+        <v>616183168</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -25092,7 +26851,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>784575232</v>
+        <v>636722624</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -25113,7 +26872,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>809884096</v>
+        <v>657262080</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -25134,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>835192960</v>
+        <v>677801472</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -25149,25 +26908,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>733</v>
+        <v>1333</v>
       </c>
       <c r="B1" t="s">
-        <v>734</v>
+        <v>1334</v>
       </c>
       <c r="C1" t="s">
-        <v>735</v>
+        <v>1335</v>
       </c>
       <c r="D1" t="s">
-        <v>736</v>
+        <v>1336</v>
       </c>
       <c r="E1" t="s">
-        <v>737</v>
+        <v>1337</v>
       </c>
       <c r="F1" t="s">
-        <v>738</v>
+        <v>1338</v>
       </c>
       <c r="G1" t="s">
-        <v>739</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2">
@@ -25175,19 +26934,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0044786930084229</v>
+        <v>1.0044493675231934</v>
       </c>
       <c r="C2" s="1">
-        <v>0.36741563677787781</v>
+        <v>0.37612855434417725</v>
       </c>
       <c r="D2" s="1">
-        <v>0.38905739784240723</v>
+        <v>0.40787705779075623</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>49259268</v>
+        <v>45500000</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -25198,19 +26957,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038384199142456</v>
+        <v>1.0038180351257324</v>
       </c>
       <c r="C3" s="1">
-        <v>0.41069912910461426</v>
+        <v>0.43168845772743225</v>
       </c>
       <c r="D3" s="1">
-        <v>0.38905739784240723</v>
+        <v>0.40787705779075623</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>54601800</v>
+        <v>50200000</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -25219,19 +26978,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032429695129395</v>
+        <v>1.0032435655593872</v>
       </c>
       <c r="C4" s="1">
-        <v>0.30417034029960632</v>
+        <v>0.28799214959144592</v>
       </c>
       <c r="D4" s="1">
-        <v>0.30417034029960632</v>
+        <v>0.28799214959144592</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>64700000</v>
+        <v>60000000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -25240,19 +26999,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025417804718018</v>
+        <v>1.0025261640548706</v>
       </c>
       <c r="C5" s="1">
-        <v>0.19743214547634125</v>
+        <v>0.2128337025642395</v>
       </c>
       <c r="D5" s="1">
-        <v>0.23798361420631409</v>
+        <v>0.24420571327209473</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72211096</v>
+        <v>81694080</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -25261,19 +27020,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0017350912094116</v>
+        <v>1.0017348527908325</v>
       </c>
       <c r="C6" s="1">
-        <v>0.26839721202850342</v>
+        <v>0.26860615611076355</v>
       </c>
       <c r="D6" s="1">
-        <v>0.23798361420631409</v>
+        <v>0.24420571327209473</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>97462992</v>
+        <v>115733280</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -25294,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>266858400</v>
+        <v>379633184</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -25315,7 +27074,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>284648960</v>
+        <v>404942048</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -25336,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>302439520</v>
+        <v>430250944</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -25357,7 +27116,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>320230080</v>
+        <v>455559808</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -25378,7 +27137,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>338020640</v>
+        <v>480868704</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -25399,7 +27158,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>355811200</v>
+        <v>506177568</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -25420,7 +27179,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>373601760</v>
+        <v>531486464</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -25441,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>391392320</v>
+        <v>556795328</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -25462,7 +27221,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>409182880</v>
+        <v>582104192</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -25483,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>426973440</v>
+        <v>607413120</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -25504,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>444764000</v>
+        <v>632721984</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -25525,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>462554560</v>
+        <v>658030848</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -25546,7 +27305,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>480345120</v>
+        <v>683339712</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -25567,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>498135680</v>
+        <v>708648576</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -25588,7 +27347,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>515926240</v>
+        <v>733957504</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -25609,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>533716800</v>
+        <v>759266368</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -25630,7 +27389,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>551507328</v>
+        <v>784575232</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -25651,7 +27410,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>569297920</v>
+        <v>809884096</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -25672,7 +27431,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>587088512</v>
+        <v>835192960</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -25687,25 +27446,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>740</v>
+        <v>1340</v>
       </c>
       <c r="B1" t="s">
-        <v>741</v>
+        <v>1341</v>
       </c>
       <c r="C1" t="s">
-        <v>742</v>
+        <v>1342</v>
       </c>
       <c r="D1" t="s">
-        <v>743</v>
+        <v>1343</v>
       </c>
       <c r="E1" t="s">
-        <v>744</v>
+        <v>1344</v>
       </c>
       <c r="F1" t="s">
-        <v>745</v>
+        <v>1345</v>
       </c>
       <c r="G1" t="s">
-        <v>746</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2">
@@ -25713,19 +27472,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0044620037078857</v>
+        <v>1.0044786930084229</v>
       </c>
       <c r="C2" s="1">
-        <v>0.36800530552864075</v>
+        <v>0.36741563677787781</v>
       </c>
       <c r="D2" s="1">
-        <v>0.41219770908355713</v>
+        <v>0.38905739784240723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42338560</v>
+        <v>49259268</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -25736,19 +27495,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038223266601563</v>
+        <v>1.0038384199142456</v>
       </c>
       <c r="C3" s="1">
-        <v>0.44313237071037292</v>
+        <v>0.41069912910461426</v>
       </c>
       <c r="D3" s="1">
-        <v>0.41219770908355713</v>
+        <v>0.38905739784240723</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46900000</v>
+        <v>54601800</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -25757,19 +27516,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032594203948975</v>
+        <v>1.0032429695129395</v>
       </c>
       <c r="C4" s="1">
-        <v>0.28876972198486328</v>
+        <v>0.30417034029960632</v>
       </c>
       <c r="D4" s="1">
-        <v>0.28876972198486328</v>
+        <v>0.30417034029960632</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54000000</v>
+        <v>64700000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -25778,19 +27537,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025427341461182</v>
+        <v>1.0025417804718018</v>
       </c>
       <c r="C5" s="1">
-        <v>0.22360712289810181</v>
+        <v>0.19743214547634125</v>
       </c>
       <c r="D5" s="1">
-        <v>0.23241773247718811</v>
+        <v>0.23798361420631409</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>61200000</v>
+        <v>72211096</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -25799,19 +27558,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0017622709274292</v>
+        <v>1.0017350912094116</v>
       </c>
       <c r="C6" s="1">
-        <v>0.24122835695743561</v>
+        <v>0.26839721202850342</v>
       </c>
       <c r="D6" s="1">
-        <v>0.23241773247718811</v>
+        <v>0.23798361420631409</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84000000</v>
+        <v>97462992</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -25832,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>193650000</v>
+        <v>266858400</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -25853,7 +27612,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>206560000</v>
+        <v>284648960</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -25874,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>219470000</v>
+        <v>302439520</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -25895,7 +27654,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>232380000</v>
+        <v>320230080</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -25916,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>245290000</v>
+        <v>338020640</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -25937,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>258200000</v>
+        <v>355811200</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -25958,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>271110016</v>
+        <v>373601760</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -25979,7 +27738,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>284020000</v>
+        <v>391392320</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -26000,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>296929984</v>
+        <v>409182880</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -26021,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>309840000</v>
+        <v>426973440</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -26042,7 +27801,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>322750016</v>
+        <v>444764000</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -26063,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>335660000</v>
+        <v>462554560</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -26084,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>348569984</v>
+        <v>480345120</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -26105,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>361480000</v>
+        <v>498135680</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -26126,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>374390016</v>
+        <v>515926240</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -26147,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>387300000</v>
+        <v>533716800</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -26168,7 +27927,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>400209984</v>
+        <v>551507328</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -26189,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>413120000</v>
+        <v>569297920</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -26210,7 +27969,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>426030016</v>
+        <v>587088512</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -26225,25 +27984,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>747</v>
+        <v>1347</v>
       </c>
       <c r="B1" t="s">
-        <v>748</v>
+        <v>1348</v>
       </c>
       <c r="C1" t="s">
-        <v>749</v>
+        <v>1349</v>
       </c>
       <c r="D1" t="s">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="E1" t="s">
-        <v>751</v>
+        <v>1351</v>
       </c>
       <c r="F1" t="s">
-        <v>752</v>
+        <v>1352</v>
       </c>
       <c r="G1" t="s">
-        <v>753</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2">
@@ -26251,19 +28010,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0045175552368164</v>
+        <v>1.0045040845870972</v>
       </c>
       <c r="C2" s="1">
-        <v>0.35965046286582947</v>
+        <v>0.33983266353607178</v>
       </c>
       <c r="D2" s="1">
-        <v>0.37468820810317993</v>
+        <v>0.3902353048324585</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>49485600</v>
+        <v>42405600</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -26274,19 +28033,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0038695335388184</v>
+        <v>1.0038361549377441</v>
       </c>
       <c r="C3" s="1">
-        <v>0.26591280102729797</v>
+        <v>0.42943733930587769</v>
       </c>
       <c r="D3" s="1">
-        <v>0.37468820810317993</v>
+        <v>0.3902353048324585</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55410240</v>
+        <v>46971280</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -26295,19 +28054,19 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0031285285949707</v>
+        <v>1.0032594203948975</v>
       </c>
       <c r="C4" s="1">
-        <v>0.45319443941116333</v>
+        <v>0.31870314478874207</v>
       </c>
       <c r="D4" s="1">
-        <v>0.37468820810317993</v>
+        <v>0.31870314478874207</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60000000</v>
+        <v>54000000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -26316,19 +28075,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025770664215088</v>
+        <v>1.002572774887085</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21399573981761932</v>
+        <v>0.1936754584312439</v>
       </c>
       <c r="D5" s="1">
-        <v>0.21535782516002655</v>
+        <v>0.21961340308189392</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>85876800</v>
+        <v>61800000</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -26337,19 +28096,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0017868280410767</v>
+        <v>1.0017622709274292</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21671991050243378</v>
+        <v>0.24122835695743561</v>
       </c>
       <c r="D6" s="1">
-        <v>0.21535782516002655</v>
+        <v>0.21961340308189392</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>111153600</v>
+        <v>84000000</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -26370,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>540899968</v>
+        <v>193650000</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -26391,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>576960000</v>
+        <v>206560000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -26412,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>613019968</v>
+        <v>219470000</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -26433,7 +28192,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>649079936</v>
+        <v>232380000</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -26454,7 +28213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>685139968</v>
+        <v>245290000</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -26475,7 +28234,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>721200000</v>
+        <v>258200000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -26496,7 +28255,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>757259968</v>
+        <v>271110016</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -26517,7 +28276,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>793319936</v>
+        <v>284020000</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -26538,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>829379968</v>
+        <v>296929984</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -26559,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>865440000</v>
+        <v>309840000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -26580,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>901499968</v>
+        <v>322750016</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -26601,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>937559936</v>
+        <v>335660000</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -26622,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>973619968</v>
+        <v>348569984</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -26643,7 +28402,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1009680000</v>
+        <v>361480000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -26664,7 +28423,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1045739968</v>
+        <v>374390016</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -26685,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1081799936</v>
+        <v>387300000</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -26706,7 +28465,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1117859968</v>
+        <v>400209984</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -26727,7 +28486,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1153920000</v>
+        <v>413120000</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -26748,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1189979904</v>
+        <v>426030016</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -26763,25 +28522,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>1354</v>
       </c>
       <c r="B1" t="s">
-        <v>755</v>
+        <v>1355</v>
       </c>
       <c r="C1" t="s">
-        <v>756</v>
+        <v>1356</v>
       </c>
       <c r="D1" t="s">
-        <v>757</v>
+        <v>1357</v>
       </c>
       <c r="E1" t="s">
-        <v>758</v>
+        <v>1358</v>
       </c>
       <c r="F1" t="s">
-        <v>759</v>
+        <v>1359</v>
       </c>
       <c r="G1" t="s">
-        <v>760</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2">
@@ -26789,19 +28548,19 @@
         <v>0.99400001764297485</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0044857263565063</v>
+        <v>1.0045175552368164</v>
       </c>
       <c r="C2" s="1">
-        <v>0.35792291164398193</v>
+        <v>0.38308486342430115</v>
       </c>
       <c r="D2" s="1">
-        <v>0.38059172034263611</v>
+        <v>0.38308486342430115</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48000000</v>
+        <v>49485600</v>
       </c>
       <c r="G2" s="1">
         <v>0.99400001764297485</v>
@@ -26812,19 +28571,19 @@
         <v>0.99500000476837158</v>
       </c>
       <c r="B3" s="1">
-        <v>1.003835916519165</v>
+        <v>1.0038930177688599</v>
       </c>
       <c r="C3" s="1">
-        <v>0.39628550410270691</v>
+        <v>0.2424783855676651</v>
       </c>
       <c r="D3" s="1">
-        <v>0.38059172034263611</v>
+        <v>0.37944382429122925</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>48999996</v>
+        <v>55949220</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -26833,13 +28592,13 @@
         <v>0.99599999189376831</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0032259225845337</v>
+        <v>1.0031285285949707</v>
       </c>
       <c r="C4" s="1">
-        <v>0.34814044833183289</v>
+        <v>0.45319443941116333</v>
       </c>
       <c r="D4" s="1">
-        <v>0.34814044833183289</v>
+        <v>0.37944382429122925</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -26854,19 +28613,19 @@
         <v>0.99699997901916504</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0025688409805298</v>
+        <v>1.0025770664215088</v>
       </c>
       <c r="C5" s="1">
-        <v>0.15094777941703796</v>
+        <v>0.21399573981761932</v>
       </c>
       <c r="D5" s="1">
-        <v>0.23899570107460022</v>
+        <v>0.21535782516002655</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66000000</v>
+        <v>85876800</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -26875,19 +28634,19 @@
         <v>0.99800002574920654</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0017155408859253</v>
+        <v>1.0017868280410767</v>
       </c>
       <c r="C6" s="1">
-        <v>0.28791120648384094</v>
+        <v>0.21671991050243378</v>
       </c>
       <c r="D6" s="1">
-        <v>0.23899570107460022</v>
+        <v>0.21535782516002655</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84000000</v>
+        <v>111153600</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -26908,7 +28667,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>369750016</v>
+        <v>540899968</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -26929,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>394400032</v>
+        <v>576960000</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -26950,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>419050016</v>
+        <v>613019968</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -26971,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>443700032</v>
+        <v>649079936</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -26992,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>468350016</v>
+        <v>685139968</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -27013,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>493000032</v>
+        <v>721200000</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -27034,7 +28793,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>517650048</v>
+        <v>757259968</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -27055,7 +28814,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>542300032</v>
+        <v>793319936</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -27076,7 +28835,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>566950016</v>
+        <v>829379968</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -27097,7 +28856,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>591600000</v>
+        <v>865440000</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -27118,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>616250048</v>
+        <v>901499968</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -27139,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>640900032</v>
+        <v>937559936</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -27160,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>665550080</v>
+        <v>973619968</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -27181,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>690200064</v>
+        <v>1009680000</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -27202,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>714850048</v>
+        <v>1045739968</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -27223,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>739500032</v>
+        <v>1081799936</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -27244,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>764150016</v>
+        <v>1117859968</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -27265,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>788800064</v>
+        <v>1153920000</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -27286,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>813450048</v>
+        <v>1189979904</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -27301,25 +29060,563 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>761</v>
+        <v>1361</v>
       </c>
       <c r="B1" t="s">
-        <v>762</v>
+        <v>1362</v>
       </c>
       <c r="C1" t="s">
-        <v>763</v>
+        <v>1363</v>
       </c>
       <c r="D1" t="s">
-        <v>764</v>
+        <v>1364</v>
       </c>
       <c r="E1" t="s">
-        <v>765</v>
+        <v>1365</v>
       </c>
       <c r="F1" t="s">
-        <v>766</v>
+        <v>1366</v>
       </c>
       <c r="G1" t="s">
-        <v>767</v>
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.99400001764297485</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0044857263565063</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.35792291164398193</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.38059172034263611</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>48000000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.99400001764297485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>0.99500000476837158</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.003835916519165</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.39628550410270691</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.38059172034263611</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>48999996</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>0.99599999189376831</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0032259225845337</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.34814044833183289</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.34814044833183289</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>0.99699997901916504</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0025688409805298</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.15094777941703796</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.23899570107460022</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0017155408859253</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.28791120648384094</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.23899570107460022</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>0.99900001287460327</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0010010004043579</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>369750016</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>0.99910002946853638</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0009007453918457</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>394400032</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>0.99919998645782471</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.000800609588623</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>419050016</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>0.99930000305175781</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0007004737854004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>443700032</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>0.99940001964569092</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0006003379821777</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>468350016</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>0.99949997663497925</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0005003213882446</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>493000032</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>0.99959999322891235</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.000400185585022</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>517650048</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>0.99970000982284546</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0003000497817993</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>542300032</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>0.99980002641677856</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0002000331878662</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>566950016</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>0.99989998340606689</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0001000165939331</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>591600000</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>0.99990999698638916</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0000900030136108</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>616250048</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>0.99992001056671143</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0000799894332886</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>640900032</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>0.99993002414703369</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0000699758529663</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>665550080</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>0.99993997812271118</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0000600814819336</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>690200064</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>0.99994999170303345</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0000500679016113</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>714850048</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>0.99996000528335571</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0000400543212891</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>739500032</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>0.99997001886367798</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.0000300407409668</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>764150016</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>0.99997997283935547</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0000200271606445</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>788800064</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>0.99998998641967773</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.0000100135803223</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>813450048</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="2">
@@ -27839,25 +30136,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>1019</v>
       </c>
       <c r="B1" t="s">
-        <v>413</v>
+        <v>1020</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>1021</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>1022</v>
       </c>
       <c r="E1" t="s">
-        <v>416</v>
+        <v>1023</v>
       </c>
       <c r="F1" t="s">
-        <v>417</v>
+        <v>1024</v>
       </c>
       <c r="G1" t="s">
-        <v>418</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2">
@@ -28692,25 +30989,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>1026</v>
       </c>
       <c r="B1" t="s">
-        <v>420</v>
+        <v>1027</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>1028</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>1029</v>
       </c>
       <c r="E1" t="s">
-        <v>423</v>
+        <v>1030</v>
       </c>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>1031</v>
       </c>
       <c r="G1" t="s">
-        <v>425</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2">
@@ -29545,25 +31842,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>1033</v>
       </c>
       <c r="B1" t="s">
-        <v>427</v>
+        <v>1034</v>
       </c>
       <c r="C1" t="s">
-        <v>428</v>
+        <v>1035</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>1036</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>1037</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>1038</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2">
@@ -30398,25 +32695,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>1040</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>1041</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>1042</v>
       </c>
       <c r="D1" t="s">
-        <v>436</v>
+        <v>1043</v>
       </c>
       <c r="E1" t="s">
-        <v>437</v>
+        <v>1044</v>
       </c>
       <c r="F1" t="s">
-        <v>438</v>
+        <v>1045</v>
       </c>
       <c r="G1" t="s">
-        <v>439</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2">
@@ -31272,25 +33569,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>1047</v>
       </c>
       <c r="B1" t="s">
-        <v>441</v>
+        <v>1048</v>
       </c>
       <c r="C1" t="s">
-        <v>442</v>
+        <v>1049</v>
       </c>
       <c r="D1" t="s">
-        <v>443</v>
+        <v>1050</v>
       </c>
       <c r="E1" t="s">
-        <v>444</v>
+        <v>1051</v>
       </c>
       <c r="F1" t="s">
-        <v>445</v>
+        <v>1052</v>
       </c>
       <c r="G1" t="s">
-        <v>446</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2">
